--- a/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2556430802375483</v>
+        <v>0.2829961300372132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9811121579312443</v>
+        <v>0.9790912149656267</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2829961300372132</v>
+        <v>0.2143912028778309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9790912149656267</v>
+        <v>0.9841599969100502</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2143912028778309</v>
+        <v>0.2394339242035501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9841599969100502</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9823097494285518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3851510881690979</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2394339242035501</v>
+        <v>0.2138012735004911</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9823097494285518</v>
+        <v>0.9842035830415448</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3851510881690979</v>
+        <v>0.3492862600957318</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2138012735004911</v>
+        <v>0.2139593575861684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9842035830415448</v>
+        <v>0.9841919032133989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3492862600957318</v>
+        <v>0.3608222963467753</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
-        </is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=150))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1434780816666413</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2139593575861684</v>
+        <v>0.3136555770001361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9841919032133989</v>
+        <v>0.9768259833324724</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3608222963467753</v>
+        <v>0.4326360737882735</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1434780816666413</v>
+        <v>0.1507174699167081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.992</v>
+        <v>0.961</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/AdaBoostRegressor/Amputación extremidades inferiores.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3136555770001361</v>
+        <v>0.2201369519164543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9768259833324724</v>
+        <v>0.9837354800394689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4326360737882735</v>
+        <v>0.3575944958890494</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(n_estimators=100))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1507174699167081</v>
+        <v>0.1395347341502202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.961</v>
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>
